--- a/public/templates/order-template.xlsx
+++ b/public/templates/order-template.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01C6565-44F1-480B-9D29-BBD15470DC8A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9750"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Заказ" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <definedName name="Толщина">Заказ!$AK$134:$AK$140</definedName>
     <definedName name="Фрезеровка">Заказ!$AN$134:$AN$136</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -242,7 +238,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -958,6 +954,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -965,6 +979,129 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1001,45 +1138,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1049,105 +1153,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1156,15 +1161,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,14 +1490,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:AO151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55:I55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1529,138 +1525,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="154.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32"/>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="A1" s="62"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
     </row>
     <row r="2" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75"/>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="78"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
     </row>
     <row r="4" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="54"/>
-    </row>
-    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="21" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="23"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
     </row>
     <row r="6" spans="1:10" ht="24.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="A6" s="81"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="82"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
+      <c r="B7" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="43" t="s">
+      <c r="D7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="43" t="s">
+      <c r="G7" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="43" t="s">
+      <c r="H7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="49" t="s">
+      <c r="I7" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="63" t="s">
+      <c r="J7" s="51" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="64"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
@@ -2323,296 +2319,293 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="75" t="s">
+      <c r="A53" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="76"/>
-      <c r="C53" s="76"/>
-      <c r="D53" s="76"/>
-      <c r="E53" s="76"/>
-      <c r="F53" s="77"/>
-      <c r="G53" s="81"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="83"/>
+      <c r="B53" s="34"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="84"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="7">
         <f>SUM(J9:J52)</f>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="60" t="s">
+      <c r="A54" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="62"/>
-      <c r="G54" s="78"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="80"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
+      <c r="E54" s="31"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="20"/>
       <c r="J54" s="8">
         <v>10</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="60" t="s">
+      <c r="A55" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="62"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="20"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="25"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="9">
         <f>J53*J54</f>
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="61"/>
-      <c r="F56" s="62"/>
-      <c r="G56" s="78"/>
-      <c r="H56" s="79"/>
-      <c r="I56" s="80"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="20"/>
       <c r="J56" s="10"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A57" s="60" t="s">
+      <c r="A57" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
-      <c r="F57" s="62"/>
-      <c r="G57" s="78"/>
-      <c r="H57" s="79"/>
-      <c r="I57" s="80"/>
-      <c r="J57" s="8">
-        <f>(F56*F57)</f>
-        <v>0</v>
-      </c>
+      <c r="B57" s="31"/>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="8"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="62"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="80"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="31"/>
+      <c r="D58" s="31"/>
+      <c r="E58" s="31"/>
+      <c r="F58" s="32"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="20"/>
       <c r="J58" s="10"/>
     </row>
     <row r="59" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="60" t="s">
+      <c r="A59" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="62"/>
-      <c r="G59" s="78"/>
-      <c r="H59" s="79"/>
-      <c r="I59" s="80"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="32"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="20"/>
       <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="66" t="s">
+      <c r="A60" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="67"/>
-      <c r="C60" s="67"/>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="20"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="58"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="8"/>
     </row>
     <row r="61" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="72" t="s">
+      <c r="A61" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="B61" s="73"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
-      <c r="F61" s="74"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="20"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="28"/>
+      <c r="D61" s="28"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="29"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="26"/>
       <c r="J61" s="8">
         <f>SUM(J55,J57,J59,J60)</f>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="72" t="s">
+      <c r="A62" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B62" s="73"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
-      <c r="F62" s="74"/>
-      <c r="G62" s="78"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="80"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="28"/>
+      <c r="D62" s="28"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="29"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="20"/>
       <c r="J62" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="60" t="s">
+      <c r="A63" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="B63" s="61"/>
-      <c r="C63" s="61"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="61"/>
-      <c r="F63" s="62"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="20"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="31"/>
+      <c r="D63" s="31"/>
+      <c r="E63" s="31"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="8">
         <f>J61-J62</f>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="57" t="s">
+      <c r="A64" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="58"/>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="78"/>
-      <c r="H64" s="79"/>
-      <c r="I64" s="80"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="49"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="20"/>
       <c r="J64" s="8"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="60" t="s">
+      <c r="A65" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="61"/>
-      <c r="F65" s="62"/>
-      <c r="G65" s="78"/>
-      <c r="H65" s="79"/>
-      <c r="I65" s="80"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="31"/>
+      <c r="E65" s="31"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="20"/>
       <c r="J65" s="8">
         <f>SUM(J63-J64)</f>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="69" t="s">
+      <c r="A66" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="70"/>
-      <c r="C66" s="70"/>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="86"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
+      <c r="E66" s="60"/>
+      <c r="F66" s="61"/>
+      <c r="G66" s="21"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="23"/>
       <c r="J66" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="48"/>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
-      <c r="E68" s="48"/>
-      <c r="F68" s="48"/>
-      <c r="G68" s="48"/>
-      <c r="H68" s="48"/>
-      <c r="I68" s="48"/>
-      <c r="J68" s="48"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="48"/>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="48"/>
-      <c r="G69" s="48"/>
-      <c r="H69" s="48"/>
-      <c r="I69" s="48"/>
-      <c r="J69" s="48"/>
+      <c r="A69" s="36"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69" s="36"/>
+      <c r="F69" s="36"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="36"/>
+      <c r="J69" s="36"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="48"/>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="48"/>
-      <c r="E70" s="48"/>
-      <c r="F70" s="48"/>
-      <c r="G70" s="48"/>
-      <c r="H70" s="48"/>
-      <c r="I70" s="48"/>
-      <c r="J70" s="48"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="36"/>
+      <c r="J70" s="36"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A71" s="48"/>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="48"/>
-      <c r="F71" s="48"/>
-      <c r="G71" s="48"/>
-      <c r="H71" s="48"/>
-      <c r="I71" s="48"/>
-      <c r="J71" s="48"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A72" s="48"/>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
-      <c r="E72" s="48"/>
-      <c r="F72" s="48"/>
-      <c r="G72" s="48"/>
-      <c r="H72" s="48"/>
-      <c r="I72" s="48"/>
-      <c r="J72" s="48"/>
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A73" s="48"/>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
-      <c r="E73" s="48"/>
-      <c r="F73" s="48"/>
-      <c r="G73" s="48"/>
-      <c r="H73" s="48"/>
-      <c r="I73" s="48"/>
-      <c r="J73" s="48"/>
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="36"/>
+      <c r="E73" s="36"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="36"/>
+      <c r="J73" s="36"/>
     </row>
     <row r="132" spans="36:41" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="133" spans="36:41" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -2738,22 +2731,26 @@
     <row r="151" ht="61.5" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="G64:I64"/>
-    <mergeCell ref="G65:I65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="G58:I58"/>
-    <mergeCell ref="G59:I59"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="G62:I62"/>
-    <mergeCell ref="G63:I63"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="A63:F63"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="A55:F55"/>
-    <mergeCell ref="A56:F56"/>
-    <mergeCell ref="A57:F57"/>
-    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="G54:I54"/>
+    <mergeCell ref="G55:I55"/>
+    <mergeCell ref="G56:I56"/>
+    <mergeCell ref="G57:I57"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C3:E3"/>
     <mergeCell ref="A68:J73"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="E7:E8"/>
@@ -2770,37 +2767,33 @@
     <mergeCell ref="A59:F59"/>
     <mergeCell ref="A60:F60"/>
     <mergeCell ref="A66:F66"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:J1"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="A55:F55"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="G64:I64"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="G58:I58"/>
+    <mergeCell ref="G59:I59"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="G62:I62"/>
+    <mergeCell ref="G63:I63"/>
     <mergeCell ref="G60:I60"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="G2:J2"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G53:I53"/>
-    <mergeCell ref="G54:I54"/>
-    <mergeCell ref="G55:I55"/>
-    <mergeCell ref="G56:I56"/>
-    <mergeCell ref="G57:I57"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H52 C5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E52">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H9:H52 C5" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E9:E52" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Толщина</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F52" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>РадиусЗавалаТорца</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G52">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G9:G52" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>РучкаИнтегрированная</formula1>
     </dataValidation>
   </dataValidations>
